--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F843B744-A077-4A74-B58E-F91ED2F7C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54AF95-7D06-4F8B-A0F8-56E10CBF85ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ano</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>31-11-2022</t>
+  </si>
+  <si>
+    <t>31-02-2023</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2433,12 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B219" s="5">
+        <v>24.87</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54AF95-7D06-4F8B-A0F8-56E10CBF85ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807688C7-8F57-49C8-8DF8-1060B3549153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2441,7 +2441,12 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
+      <c r="A220" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B220" s="5">
+        <v>25.32</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807688C7-8F57-49C8-8DF8-1060B3549153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA326C8-5AE7-448F-AD22-D75DE11435A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ano</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>31-02-2023</t>
+  </si>
+  <si>
+    <t>31-04-2023</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2452,12 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="5">
+        <v>25.92</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA326C8-5AE7-448F-AD22-D75DE11435A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEDB3F-E9D4-4D51-87CA-2C4AEC6A516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2460,7 +2460,12 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
+      <c r="A222" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B222" s="5">
+        <v>24.36</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEDB3F-E9D4-4D51-87CA-2C4AEC6A516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A55B259-FCBE-42C1-8EBE-C80857E16A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ano</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>31-04-2023</t>
+  </si>
+  <si>
+    <t>31-06-2023</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2471,12 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
+      <c r="A223" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B223" s="5">
+        <v>24.54</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A55B259-FCBE-42C1-8EBE-C80857E16A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814DA49-9AF1-456E-9DB7-1EF6F997C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2479,12 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
+      <c r="A224" s="3">
+        <v>45138</v>
+      </c>
+      <c r="B224" s="5">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814DA49-9AF1-456E-9DB7-1EF6F997C759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487197F-B8E3-40B8-87E6-C6D373C72D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2486,52 +2486,57 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>45169</v>
+      </c>
+      <c r="B225" s="5">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487197F-B8E3-40B8-87E6-C6D373C72D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE963A86-658A-4AE5-810D-4A47D84BC82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>ano</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>31-06-2023</t>
+  </si>
+  <si>
+    <t>31-09-2023</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2498,12 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B226" s="5">
+        <v>25.17</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE963A86-658A-4AE5-810D-4A47D84BC82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B124B-4D97-414A-957F-AF4A66CB80F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2506,12 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
+      <c r="A227" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B227" s="5">
+        <v>25.08</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3B124B-4D97-414A-957F-AF4A66CB80F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43108012-6EC4-446E-BA1C-5307F6C8FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>ano</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>31-09-2023</t>
+  </si>
+  <si>
+    <t>31-11-2023</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2517,12 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
+      <c r="A228" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" s="5">
+        <v>24.96</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43108012-6EC4-446E-BA1C-5307F6C8FF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1111A7-F124-4737-B1CB-1555CA995036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2525,7 +2525,12 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
+      <c r="A229" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B229" s="5">
+        <v>25.77</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1111A7-F124-4737-B1CB-1555CA995036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622145A-F121-43A6-9261-B39E027C4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2533,7 +2533,12 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
+      <c r="A230" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B230" s="5">
+        <v>23.46</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622145A-F121-43A6-9261-B39E027C4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC74AC9-67F7-43CE-B917-C97EB5B666B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ano</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>31-11-2023</t>
+  </si>
+  <si>
+    <t>31-02-2024</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2541,7 +2544,12 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
+      <c r="A231" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B231" s="5">
+        <v>24.78</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC74AC9-67F7-43CE-B917-C97EB5B666B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BFF78-BA16-48D5-ADE9-4892C6CAFC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2552,12 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
+      <c r="A232" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B232" s="5">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52BFF78-BA16-48D5-ADE9-4892C6CAFC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDD378-E0E1-4612-86A7-EB3246578951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1665" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farinha_ilheus" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ano</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>31-02-2024</t>
+  </si>
+  <si>
+    <t>31-04-2024</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:B242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2563,12 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B233" s="5">
+        <v>24.69</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDD378-E0E1-4612-86A7-EB3246578951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81471A-1702-4F4D-A598-456094CD628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1665" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farinha_ilheus" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2571,7 +2571,12 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
+      <c r="A234" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B234" s="5">
+        <v>23.61</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B81471A-1702-4F4D-A598-456094CD628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EEF27E-977A-496C-A206-083C14C1923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ano</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>31-04-2024</t>
+  </si>
+  <si>
+    <t>31-06-2024</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2582,12 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
+      <c r="A235" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" s="5">
+        <v>23.19</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EEF27E-977A-496C-A206-083C14C1923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C94EE-3F13-449B-BB90-F0CF90DE8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2590,12 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
+      <c r="A236" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B236" s="5">
+        <v>21.81</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72C94EE-3F13-449B-BB90-F0CF90DE8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321645DE-60A0-420E-9199-5E9C31F27CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2598,12 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
+      <c r="A237" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B237" s="5">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321645DE-60A0-420E-9199-5E9C31F27CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2621226-FCE7-4BFA-917C-61D4A7B96A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>ano</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>31-06-2024</t>
+  </si>
+  <si>
+    <t>31-09-2024</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2606,7 +2609,12 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B238" s="5">
+        <v>21.93</v>
+      </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2621226-FCE7-4BFA-917C-61D4A7B96A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF14FC-0024-4BCA-877F-9C84B5DA5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2617,7 +2617,12 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
+      <c r="A239" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B239" s="5">
+        <v>23.37</v>
+      </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF14FC-0024-4BCA-877F-9C84B5DA5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2AEF58-6D25-43A9-BC3E-2E69C174093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>ano</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>31-09-2024</t>
+  </si>
+  <si>
+    <t>31-11-2024</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2628,12 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
+      <c r="A240" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="5">
+        <v>22.74</v>
+      </c>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2AEF58-6D25-43A9-BC3E-2E69C174093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE0D97-E407-4770-BFDA-917758A28D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2635,10 +2635,15 @@
         <v>22.74</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B241" s="5">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
     </row>
   </sheetData>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE0D97-E407-4770-BFDA-917758A28D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF4DF4-3391-41C8-97E1-C183E6C0E32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2644,12 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
+      <c r="A242" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B242" s="5">
+        <v>24.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF4DF4-3391-41C8-97E1-C183E6C0E32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F8A40-60BF-4138-89CE-3BF8F54975CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ano</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>31-11-2024</t>
+  </si>
+  <si>
+    <t>31-02-2025</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -390,6 +393,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,16 +714,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2650,6 +2660,191 @@
       <c r="B242" s="5">
         <v>24.27</v>
       </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B243" s="5">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="3"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="3"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="3"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="3"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="3"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="3"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F8A40-60BF-4138-89CE-3BF8F54975CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DD380-F128-481B-BE61-BB91EC64E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farinha_ilheus" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2670,12 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
+      <c r="A244" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B244" s="5">
+        <v>20.82</v>
+      </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3DD380-F128-481B-BE61-BB91EC64E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F8CE46-AFAD-4159-9BB2-D5FF7C41F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ano</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>31-02-2025</t>
+  </si>
+  <si>
+    <t>31-04-2025</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2678,7 +2681,12 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" s="5">
+        <v>22.65</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F87080-49FB-4249-957A-68CF9B264933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="farinha_ilheus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="farinha_ilheus" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>ano</t>
   </si>
@@ -334,23 +351,26 @@
   </si>
   <si>
     <t>31-04-2025</t>
+  </si>
+  <si>
+    <t>31-06-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -364,30 +384,30 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -407,291 +427,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,26 +631,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B246" activeCellId="0" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="14.42578125"/>
+    <col min="1" max="1" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,31 +659,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>38383</v>
       </c>
       <c r="B2" s="5">
-        <v>3.7799999999999998</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>3.8100000000000001</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>38442</v>
       </c>
       <c r="B4" s="5">
-        <v>3.4500000000000002</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -953,23 +691,23 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>38503</v>
       </c>
       <c r="B6" s="5">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>38564</v>
       </c>
@@ -977,87 +715,87 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>38595</v>
       </c>
       <c r="B9" s="5">
-        <v>3.6299999999999999</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>38656</v>
       </c>
       <c r="B11" s="5">
-        <v>3.0899999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5">
-        <v>3.0600000000000001</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>38717</v>
       </c>
       <c r="B13" s="5">
-        <v>3.0299999999999998</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>38748</v>
       </c>
       <c r="B14" s="5">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>3.1499999999999999</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>38807</v>
       </c>
       <c r="B16" s="5">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="5">
-        <v>3.0299999999999998</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>38868</v>
       </c>
       <c r="B18" s="5">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>38929</v>
       </c>
@@ -1073,7 +811,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>38960</v>
       </c>
@@ -1081,15 +819,15 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5">
-        <v>3.1800000000000002</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>39021</v>
       </c>
@@ -1097,23 +835,23 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="24" ht="12.75">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="5">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>39082</v>
       </c>
       <c r="B25" s="5">
-        <v>3.3300000000000001</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>39113</v>
       </c>
@@ -1121,23 +859,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="27" ht="12.75">
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="5">
-        <v>3.6299999999999999</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>39172</v>
       </c>
       <c r="B28" s="5">
-        <v>3.7799999999999998</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1145,15 +883,15 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" ht="12.75">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>39233</v>
       </c>
       <c r="B30" s="5">
-        <v>3.5099999999999998</v>
-      </c>
-    </row>
-    <row r="31" ht="12.75">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1161,23 +899,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="32" ht="12.75">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>39294</v>
       </c>
       <c r="B32" s="5">
-        <v>3.5099999999999998</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39325</v>
       </c>
       <c r="B33" s="5">
-        <v>3.2400000000000002</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1185,47 +923,47 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="35" ht="12.75">
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39386</v>
       </c>
       <c r="B35" s="5">
-        <v>3.1499999999999999</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="5">
-        <v>3.3900000000000001</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39447</v>
       </c>
       <c r="B37" s="5">
-        <v>4.2000000000000002</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>39478</v>
       </c>
       <c r="B38" s="5">
-        <v>4.7400000000000002</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="5">
-        <v>4.9500000000000002</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39538</v>
       </c>
@@ -1233,23 +971,23 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="41" ht="12.75">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="5">
-        <v>4.9500000000000002</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39599</v>
       </c>
       <c r="B42" s="5">
-        <v>4.9500000000000002</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +995,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="44" ht="12.75">
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>39660</v>
       </c>
@@ -1265,15 +1003,15 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="45" ht="12.75">
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>39691</v>
       </c>
       <c r="B45" s="5">
-        <v>5.0700000000000003</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
@@ -1281,39 +1019,39 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="47" ht="12.75">
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>39752</v>
       </c>
       <c r="B47" s="5">
-        <v>4.9500000000000002</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="5">
-        <v>5.0099999999999998</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>39813</v>
       </c>
       <c r="B49" s="5">
-        <v>5.6100000000000003</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>39844</v>
       </c>
       <c r="B50" s="5">
-        <v>5.4000000000000004</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
@@ -1321,31 +1059,31 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="52" ht="12.75">
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>39903</v>
       </c>
       <c r="B52" s="5">
-        <v>5.2800000000000002</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="5">
-        <v>5.0700000000000003</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>39964</v>
       </c>
       <c r="B54" s="5">
-        <v>4.9199999999999999</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1091,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="56" ht="12.75">
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40025</v>
       </c>
@@ -1361,7 +1099,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="57" ht="12.75">
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>40056</v>
       </c>
@@ -1369,39 +1107,39 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="58" ht="12.75">
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="5">
-        <v>5.2800000000000002</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>40117</v>
       </c>
       <c r="B59" s="5">
-        <v>4.4699999999999998</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="5">
-        <v>4.4100000000000001</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>40178</v>
       </c>
       <c r="B61" s="5">
-        <v>4.9199999999999999</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>40209</v>
       </c>
@@ -1409,7 +1147,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="63" ht="12.75">
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -1417,39 +1155,39 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="64" ht="12.75">
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>40268</v>
       </c>
       <c r="B64" s="5">
-        <v>5.6100000000000003</v>
-      </c>
-    </row>
-    <row r="65" ht="12.75">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="5">
-        <v>5.6699999999999999</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>40329</v>
       </c>
       <c r="B66" s="5">
-        <v>5.7300000000000004</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="5">
-        <v>5.4900000000000002</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>40390</v>
       </c>
@@ -1457,7 +1195,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="69" ht="12.75">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>40421</v>
       </c>
@@ -1465,23 +1203,23 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="70" ht="12.75">
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="5">
-        <v>5.0099999999999998</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>40482</v>
       </c>
       <c r="B71" s="5">
-        <v>4.7999999999999998</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1227,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="73" ht="12.75">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>40543</v>
       </c>
@@ -1497,15 +1235,15 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="74" ht="12.75">
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>40574</v>
       </c>
       <c r="B74" s="5">
-        <v>5.1600000000000001</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>32</v>
       </c>
@@ -1513,15 +1251,15 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="76" ht="12.75">
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>40633</v>
       </c>
       <c r="B76" s="5">
-        <v>5.0099999999999998</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>33</v>
       </c>
@@ -1529,7 +1267,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="78" ht="12.75">
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>40694</v>
       </c>
@@ -1537,15 +1275,15 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="79" ht="12.75">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="5">
-        <v>4.9199999999999999</v>
-      </c>
-    </row>
-    <row r="80" ht="12.75">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>40755</v>
       </c>
@@ -1553,15 +1291,15 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="81" ht="12.75">
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>40786</v>
       </c>
       <c r="B81" s="5">
-        <v>5.0099999999999998</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -1569,7 +1307,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="83" ht="12.75">
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>40847</v>
       </c>
@@ -1577,119 +1315,119 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="84" ht="12.75">
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="5">
-        <v>5.5800000000000001</v>
-      </c>
-    </row>
-    <row r="85" ht="12.75">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>40908</v>
       </c>
       <c r="B85" s="5">
-        <v>5.7000000000000002</v>
-      </c>
-    </row>
-    <row r="86" ht="12.75">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>40939</v>
       </c>
       <c r="B86" s="5">
-        <v>6.3300000000000001</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="5">
-        <v>6.6600000000000001</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>40999</v>
       </c>
       <c r="B88" s="5">
-        <v>6.5099999999999998</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="5">
-        <v>6.6900000000000004</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>41060</v>
       </c>
       <c r="B90" s="5">
-        <v>6.6299999999999999</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="5">
-        <v>6.5700000000000003</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>41121</v>
       </c>
       <c r="B92" s="5">
-        <v>6.4500000000000002</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>41152</v>
       </c>
       <c r="B93" s="5">
-        <v>6.9299999999999997</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="5">
-        <v>6.9000000000000004</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>41213</v>
       </c>
       <c r="B95" s="5">
-        <v>8.3399999999999999</v>
-      </c>
-    </row>
-    <row r="96" ht="12.75">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="5">
-        <v>9.2699999999999996</v>
-      </c>
-    </row>
-    <row r="97" ht="12.75">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>41274</v>
       </c>
       <c r="B97" s="5">
-        <v>10.890000000000001</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>41305</v>
       </c>
@@ -1697,7 +1435,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="99" ht="12.75">
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>42</v>
       </c>
@@ -1705,7 +1443,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="100" ht="12.75">
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>41364</v>
       </c>
@@ -1713,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="12.75">
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1459,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="102" ht="12.75">
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>41425</v>
       </c>
@@ -1729,7 +1467,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="103" ht="12.75">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1475,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="104" ht="12.75">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>41486</v>
       </c>
@@ -1745,15 +1483,15 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="105" ht="12.75">
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>41517</v>
       </c>
       <c r="B105" s="5">
-        <v>15.449999999999999</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>45</v>
       </c>
@@ -1761,7 +1499,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="107" ht="12.75">
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>41578</v>
       </c>
@@ -1769,7 +1507,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="108" ht="12.75">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>46</v>
       </c>
@@ -1777,7 +1515,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="109" ht="12.75">
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>41639</v>
       </c>
@@ -1785,7 +1523,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="110" ht="12.75">
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>41670</v>
       </c>
@@ -1793,7 +1531,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="111" ht="12.75">
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>47</v>
       </c>
@@ -1801,23 +1539,23 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="112" ht="12.75">
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>41729</v>
       </c>
       <c r="B112" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="5">
-        <v>15.359999999999999</v>
-      </c>
-    </row>
-    <row r="114" ht="12.75">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>41790</v>
       </c>
@@ -1825,15 +1563,15 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="115" ht="12.75">
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B115" s="5">
-        <v>16.469999999999999</v>
-      </c>
-    </row>
-    <row r="116" ht="12.75">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>41851</v>
       </c>
@@ -1841,7 +1579,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="117" ht="12.75">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>41882</v>
       </c>
@@ -1849,15 +1587,15 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="118" ht="12.75">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="119" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>41943</v>
       </c>
@@ -1865,55 +1603,55 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="120" ht="12.75">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="121" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>42004</v>
       </c>
       <c r="B121" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>42035</v>
       </c>
       <c r="B122" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="5">
-        <v>16.530000000000001</v>
-      </c>
-    </row>
-    <row r="124" ht="12.75">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>42094</v>
       </c>
       <c r="B124" s="5">
-        <v>16.199999999999999</v>
-      </c>
-    </row>
-    <row r="125" ht="12.75">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="5">
-        <v>16.199999999999999</v>
-      </c>
-    </row>
-    <row r="126" ht="12.75">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>42155</v>
       </c>
@@ -1921,23 +1659,23 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="127" ht="12.75">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="5">
-        <v>14.369999999999999</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>42216</v>
       </c>
       <c r="B128" s="5">
-        <v>10.289999999999999</v>
-      </c>
-    </row>
-    <row r="129" ht="12.75">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>42247</v>
       </c>
@@ -1945,7 +1683,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="130" ht="12.75">
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>55</v>
       </c>
@@ -1953,7 +1691,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="131" ht="12.75">
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>42308</v>
       </c>
@@ -1961,7 +1699,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="132" ht="12.75">
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +1707,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="133" ht="12.75">
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>42369</v>
       </c>
@@ -1977,15 +1715,15 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="134" ht="12.75">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>42400</v>
       </c>
       <c r="B134" s="5">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="135" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>57</v>
       </c>
@@ -1993,15 +1731,15 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="136" ht="12.75">
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>42460</v>
       </c>
       <c r="B136" s="5">
-        <v>12.869999999999999</v>
-      </c>
-    </row>
-    <row r="137" ht="12.75">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>58</v>
       </c>
@@ -2009,7 +1747,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="138" ht="12.75">
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>42521</v>
       </c>
@@ -2017,7 +1755,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="139" ht="12.75">
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>59</v>
       </c>
@@ -2025,7 +1763,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="140" ht="12.75">
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>42582</v>
       </c>
@@ -2033,15 +1771,15 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="141" ht="12.75">
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>42613</v>
       </c>
       <c r="B141" s="5">
-        <v>16.890000000000001</v>
-      </c>
-    </row>
-    <row r="142" ht="12.75">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>60</v>
       </c>
@@ -2049,15 +1787,15 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="143" ht="12.75">
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>42674</v>
       </c>
       <c r="B143" s="5">
-        <v>16.530000000000001</v>
-      </c>
-    </row>
-    <row r="144" ht="12.75">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>61</v>
       </c>
@@ -2065,7 +1803,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="145" ht="12.75">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>42735</v>
       </c>
@@ -2073,15 +1811,15 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="146" ht="12.75">
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>42766</v>
       </c>
       <c r="B146" s="5">
-        <v>18.870000000000001</v>
-      </c>
-    </row>
-    <row r="147" ht="12.75">
+        <v>18.87</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>62</v>
       </c>
@@ -2089,7 +1827,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="148" ht="12.75">
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>42825</v>
       </c>
@@ -2097,23 +1835,23 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="149" ht="12.75">
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="5">
-        <v>17.789999999999999</v>
-      </c>
-    </row>
-    <row r="150" ht="12.75">
+        <v>17.79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>42886</v>
       </c>
       <c r="B150" s="5">
-        <v>17.280000000000001</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>64</v>
       </c>
@@ -2121,23 +1859,23 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="152" ht="12.75">
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>42947</v>
       </c>
       <c r="B152" s="5">
-        <v>19.050000000000001</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>42978</v>
       </c>
       <c r="B153" s="5">
-        <v>17.370000000000001</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>65</v>
       </c>
@@ -2145,31 +1883,31 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="155" ht="12.75">
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>43039</v>
       </c>
       <c r="B155" s="5">
-        <v>16.469999999999999</v>
-      </c>
-    </row>
-    <row r="156" ht="12.75">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="5">
-        <v>16.109999999999999</v>
-      </c>
-    </row>
-    <row r="157" ht="12.75">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>43100</v>
       </c>
       <c r="B157" s="5">
-        <v>16.620000000000001</v>
-      </c>
-    </row>
-    <row r="158" ht="12.75">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>43131</v>
       </c>
@@ -2177,15 +1915,15 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="159" ht="12.75">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="5">
-        <v>16.890000000000001</v>
-      </c>
-    </row>
-    <row r="160" ht="12.75">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>43190</v>
       </c>
@@ -2193,15 +1931,15 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="161" ht="12.75">
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="5">
-        <v>16.289999999999999</v>
-      </c>
-    </row>
-    <row r="162" ht="12.75">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>43251</v>
       </c>
@@ -2209,15 +1947,15 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="163" ht="12.75">
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="5">
-        <v>15.779999999999999</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>43312</v>
       </c>
@@ -2225,23 +1963,23 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="165" ht="12.75">
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>43343</v>
       </c>
       <c r="B165" s="5">
-        <v>15.390000000000001</v>
-      </c>
-    </row>
-    <row r="166" ht="12.75">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="5">
-        <v>14.699999999999999</v>
-      </c>
-    </row>
-    <row r="167" ht="12.75">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>43404</v>
       </c>
@@ -2249,7 +1987,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="168" ht="12.75">
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +1995,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="169" ht="12.75">
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>43465</v>
       </c>
@@ -2265,31 +2003,31 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="170" ht="12.75">
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>43496</v>
       </c>
       <c r="B170" s="5">
-        <v>13.619999999999999</v>
-      </c>
-    </row>
-    <row r="171" ht="12.75">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="5">
-        <v>13.710000000000001</v>
-      </c>
-    </row>
-    <row r="172" ht="12.75">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>43555</v>
       </c>
       <c r="B172" s="5">
-        <v>11.880000000000001</v>
-      </c>
-    </row>
-    <row r="173" ht="12.75">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>73</v>
       </c>
@@ -2297,15 +2035,15 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="174" ht="12.75">
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>43616</v>
       </c>
       <c r="B174" s="5">
-        <v>12.630000000000001</v>
-      </c>
-    </row>
-    <row r="175" ht="12.75">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>74</v>
       </c>
@@ -2313,15 +2051,15 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="176" ht="12.75">
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>43677</v>
       </c>
       <c r="B176" s="5">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="177" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>43708</v>
       </c>
@@ -2329,23 +2067,23 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="178" ht="12.75">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B178" s="5">
-        <v>13.470000000000001</v>
-      </c>
-    </row>
-    <row r="179" ht="12.75">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>43769</v>
       </c>
       <c r="B179" s="5">
-        <v>12.359999999999999</v>
-      </c>
-    </row>
-    <row r="180" ht="12.75">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2091,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="181" ht="12.75">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>43830</v>
       </c>
@@ -2361,7 +2099,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="182" ht="12.75">
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>43861</v>
       </c>
@@ -2369,7 +2107,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="183" ht="12.75">
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>77</v>
       </c>
@@ -2377,15 +2115,15 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="184" ht="12.75">
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>43921</v>
       </c>
       <c r="B184" s="5">
-        <v>12.300000000000001</v>
-      </c>
-    </row>
-    <row r="185" ht="12.75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -2393,23 +2131,23 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="186" ht="12.75">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>43982</v>
       </c>
       <c r="B186" s="5">
-        <v>14.880000000000001</v>
-      </c>
-    </row>
-    <row r="187" ht="12.75">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B187" s="5">
-        <v>15.359999999999999</v>
-      </c>
-    </row>
-    <row r="188" ht="12.75">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>44043</v>
       </c>
@@ -2417,7 +2155,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="189" ht="12.75">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>44074</v>
       </c>
@@ -2425,23 +2163,23 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="190" ht="12.75">
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="5">
-        <v>14.789999999999999</v>
-      </c>
-    </row>
-    <row r="191" ht="12.75">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>44135</v>
       </c>
       <c r="B191" s="5">
-        <v>14.550000000000001</v>
-      </c>
-    </row>
-    <row r="192" ht="12.75">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>81</v>
       </c>
@@ -2449,15 +2187,15 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="193" ht="12.75">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>44196</v>
       </c>
       <c r="B193" s="5">
-        <v>14.550000000000001</v>
-      </c>
-    </row>
-    <row r="194" ht="12.75">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>44227</v>
       </c>
@@ -2465,15 +2203,15 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="195" ht="12.75">
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="5">
-        <v>14.279999999999999</v>
-      </c>
-    </row>
-    <row r="196" ht="12.75">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>44286</v>
       </c>
@@ -2481,23 +2219,23 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="197" ht="12.75">
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B197" s="5">
-        <v>13.800000000000001</v>
-      </c>
-    </row>
-    <row r="198" ht="12.75">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>44347</v>
       </c>
       <c r="B198" s="5">
-        <v>14.279999999999999</v>
-      </c>
-    </row>
-    <row r="199" ht="12.75">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>84</v>
       </c>
@@ -2505,23 +2243,23 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>44408</v>
       </c>
       <c r="B200" s="5">
-        <v>15.359999999999999</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="5">
-        <v>14.880000000000001</v>
-      </c>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>86</v>
       </c>
@@ -2529,7 +2267,7 @@
         <v>16.489999999999998</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>87</v>
       </c>
@@ -2537,7 +2275,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>88</v>
       </c>
@@ -2545,7 +2283,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>44561</v>
       </c>
@@ -2553,7 +2291,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>44592</v>
       </c>
@@ -2561,15 +2299,15 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="5">
-        <v>17.129999999999999</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>17.13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>44651</v>
       </c>
@@ -2577,7 +2315,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>90</v>
       </c>
@@ -2585,7 +2323,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>44712</v>
       </c>
@@ -2593,7 +2331,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>91</v>
       </c>
@@ -2601,15 +2339,15 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
         <v>44773</v>
       </c>
       <c r="B212" s="5">
-        <v>19.109999999999999</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
         <v>44804</v>
       </c>
@@ -2617,7 +2355,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>92</v>
       </c>
@@ -2625,7 +2363,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>44865</v>
       </c>
@@ -2633,23 +2371,23 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B216" s="5">
-        <v>22.140000000000001</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>44926</v>
       </c>
       <c r="B217" s="5">
-        <v>24.030000000000001</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>24.03</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
         <v>44957</v>
       </c>
@@ -2657,15 +2395,15 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B219" s="5">
-        <v>24.870000000000001</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>45016</v>
       </c>
@@ -2673,31 +2411,31 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B221" s="5">
-        <v>25.920000000000002</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
         <v>45077</v>
       </c>
       <c r="B222" s="5">
-        <v>24.359999999999999</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="5">
-        <v>24.539999999999999</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
         <v>45138</v>
       </c>
@@ -2705,39 +2443,39 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
         <v>45169</v>
       </c>
       <c r="B225" s="5">
-        <v>25.469999999999999</v>
-      </c>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="5">
-        <v>25.170000000000002</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
         <v>45230</v>
       </c>
       <c r="B227" s="5">
-        <v>25.079999999999998</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="5">
-        <v>24.960000000000001</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
         <v>45291</v>
       </c>
@@ -2745,23 +2483,23 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
         <v>45322</v>
       </c>
       <c r="B230" s="5">
-        <v>23.460000000000001</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="5">
-        <v>24.780000000000001</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
         <v>45382</v>
       </c>
@@ -2769,47 +2507,47 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="5">
-        <v>24.690000000000001</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>24.69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
         <v>45443</v>
       </c>
       <c r="B234" s="5">
-        <v>23.609999999999999</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="5">
-        <v>23.190000000000001</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>23.19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
         <v>45504</v>
       </c>
       <c r="B236" s="5">
-        <v>21.809999999999999</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
         <v>45535</v>
       </c>
       <c r="B237" s="5">
-        <v>22.199999999999999</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>102</v>
       </c>
@@ -2817,31 +2555,31 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
         <v>45596</v>
       </c>
       <c r="B239" s="5">
-        <v>23.370000000000001</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>23.37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="5">
-        <v>22.739999999999998</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
         <v>45657</v>
       </c>
       <c r="B241" s="5">
-        <v>23.399999999999999</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
         <v>45688</v>
       </c>
@@ -2849,15 +2587,15 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B243" s="5">
-        <v>22.289999999999999</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
         <v>45747</v>
       </c>
@@ -2865,194 +2603,197 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B245" s="5">
-        <v>22.649999999999999</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>22.440000000000001</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="6"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+        <v>22.44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B247" s="5">
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F87080-49FB-4249-957A-68CF9B264933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F40A7-0522-4088-B3F5-36ADCCA97583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="64"/>
@@ -372,6 +372,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -410,6 +415,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +649,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2628,7 +2634,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="6"/>
+      <c r="A248" s="6">
+        <v>45869</v>
+      </c>
+      <c r="B248" s="7">
+        <v>23.04</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F40A7-0522-4088-B3F5-36ADCCA97583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ECB6FA-1EDA-42E0-BF36-8FC675DFB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -649,7 +652,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2642,7 +2645,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="6"/>
+      <c r="A249" s="6">
+        <v>45900</v>
+      </c>
+      <c r="B249" s="7">
+        <v>23.31</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ECB6FA-1EDA-42E0-BF36-8FC675DFB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B177C2-005D-428D-843A-629C06437407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>ano</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>31-06-2025</t>
+  </si>
+  <si>
+    <t>31-09-2025</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2653,7 +2656,12 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="6"/>
+      <c r="A250" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="7">
+        <v>22.83</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B177C2-005D-428D-843A-629C06437407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B6F19-18A6-42AC-8CE3-A63E359FE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2664,7 +2664,12 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="6"/>
+      <c r="A251" s="6">
+        <v>45961</v>
+      </c>
+      <c r="B251" s="7">
+        <v>21.93</v>
+      </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B6F19-18A6-42AC-8CE3-A63E359FE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AF948-302C-41D1-BA09-B61DD554A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ano</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>31-09-2025</t>
+  </si>
+  <si>
+    <t>31-11-2025</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:B302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2672,7 +2675,12 @@
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="6"/>
+      <c r="A252" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B252" s="7">
+        <v>20.91</v>
+      </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6"/>

--- a/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/farinha_ilheus.xlsx
@@ -1,36 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AF948-302C-41D1-BA09-B61DD554A7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="farinha_ilheus" sheetId="1" r:id="rId1"/>
+    <sheet name="farinha_ilheus" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -368,24 +348,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,33 +373,32 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +416,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,27 +903,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView topLeftCell="A225" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B253" activeCellId="0" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1"/>
+    <col min="1" max="1" style="1" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,31 +930,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>38383</v>
       </c>
       <c r="B2" s="5">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.7799999999999998</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>38442</v>
       </c>
       <c r="B4" s="5">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.4500000000000002</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -706,23 +962,23 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>38503</v>
       </c>
       <c r="B6" s="5">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>38564</v>
       </c>
@@ -730,87 +986,87 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>38595</v>
       </c>
       <c r="B9" s="5">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.6299999999999999</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>38656</v>
       </c>
       <c r="B11" s="5">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0899999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>38717</v>
       </c>
       <c r="B13" s="5">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>38748</v>
       </c>
       <c r="B14" s="5">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="5">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4">
         <v>38807</v>
       </c>
       <c r="B16" s="5">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="5">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4">
         <v>38868</v>
       </c>
       <c r="B18" s="5">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -818,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4">
         <v>38929</v>
       </c>
@@ -826,7 +1082,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
         <v>38960</v>
       </c>
@@ -834,15 +1090,15 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1800000000000002</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="4">
         <v>39021</v>
       </c>
@@ -850,23 +1106,23 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" ht="12.75">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="5">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75">
       <c r="A25" s="4">
         <v>39082</v>
       </c>
       <c r="B25" s="5">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3300000000000001</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75">
       <c r="A26" s="4">
         <v>39113</v>
       </c>
@@ -874,23 +1130,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" ht="12.75">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="5">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6299999999999999</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
       <c r="A28" s="4">
         <v>39172</v>
       </c>
       <c r="B28" s="5">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.7799999999999998</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -898,15 +1154,15 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="12.75">
       <c r="A30" s="4">
         <v>39233</v>
       </c>
       <c r="B30" s="5">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -914,23 +1170,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75">
       <c r="A32" s="4">
         <v>39294</v>
       </c>
       <c r="B32" s="5">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75">
       <c r="A33" s="4">
         <v>39325</v>
       </c>
       <c r="B33" s="5">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.2400000000000002</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -938,47 +1194,47 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" ht="12.75">
       <c r="A35" s="4">
         <v>39386</v>
       </c>
       <c r="B35" s="5">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1499999999999999</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="5">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3900000000000001</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75">
       <c r="A37" s="4">
         <v>39447</v>
       </c>
       <c r="B37" s="5">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75">
       <c r="A38" s="4">
         <v>39478</v>
       </c>
       <c r="B38" s="5">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.7400000000000002</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="5">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75">
       <c r="A40" s="4">
         <v>39538</v>
       </c>
@@ -986,23 +1242,23 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75">
       <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="5">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75">
       <c r="A42" s="4">
         <v>39599</v>
       </c>
       <c r="B42" s="5">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75">
       <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1010,7 +1266,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75">
       <c r="A44" s="4">
         <v>39660</v>
       </c>
@@ -1018,15 +1274,15 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" ht="12.75">
       <c r="A45" s="4">
         <v>39691</v>
       </c>
       <c r="B45" s="5">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0700000000000003</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75">
       <c r="A46" s="4" t="s">
         <v>20</v>
       </c>
@@ -1034,39 +1290,39 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" ht="12.75">
       <c r="A47" s="4">
         <v>39752</v>
       </c>
       <c r="B47" s="5">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="5">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0099999999999998</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75">
       <c r="A49" s="4">
         <v>39813</v>
       </c>
       <c r="B49" s="5">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.6100000000000003</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75">
       <c r="A50" s="4">
         <v>39844</v>
       </c>
       <c r="B50" s="5">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75">
       <c r="A51" s="4" t="s">
         <v>22</v>
       </c>
@@ -1074,31 +1330,31 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" ht="12.75">
       <c r="A52" s="4">
         <v>39903</v>
       </c>
       <c r="B52" s="5">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="5">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0700000000000003</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75">
       <c r="A54" s="4">
         <v>39964</v>
       </c>
       <c r="B54" s="5">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9199999999999999</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1362,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="12.75">
       <c r="A56" s="4">
         <v>40025</v>
       </c>
@@ -1114,7 +1370,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" ht="12.75">
       <c r="A57" s="4">
         <v>40056</v>
       </c>
@@ -1122,39 +1378,39 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" ht="12.75">
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="5">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75">
       <c r="A59" s="4">
         <v>40117</v>
       </c>
       <c r="B59" s="5">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.4699999999999998</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75">
       <c r="A60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="5">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.4100000000000001</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75">
       <c r="A61" s="4">
         <v>40178</v>
       </c>
       <c r="B61" s="5">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9199999999999999</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75">
       <c r="A62" s="4">
         <v>40209</v>
       </c>
@@ -1162,7 +1418,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" ht="12.75">
       <c r="A63" s="4" t="s">
         <v>27</v>
       </c>
@@ -1170,39 +1426,39 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" ht="12.75">
       <c r="A64" s="4">
         <v>40268</v>
       </c>
       <c r="B64" s="5">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.6100000000000003</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="5">
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.6699999999999999</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75">
       <c r="A66" s="4">
         <v>40329</v>
       </c>
       <c r="B66" s="5">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.7300000000000004</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="5">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.4900000000000002</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
       <c r="A68" s="4">
         <v>40390</v>
       </c>
@@ -1210,7 +1466,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" ht="12.75">
       <c r="A69" s="4">
         <v>40421</v>
       </c>
@@ -1218,23 +1474,23 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" ht="12.75">
       <c r="A70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="5">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0099999999999998</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
       <c r="A71" s="4">
         <v>40482</v>
       </c>
       <c r="B71" s="5">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.7999999999999998</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75">
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
@@ -1242,7 +1498,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" ht="12.75">
       <c r="A73" s="4">
         <v>40543</v>
       </c>
@@ -1250,15 +1506,15 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" ht="12.75">
       <c r="A74" s="4">
         <v>40574</v>
       </c>
       <c r="B74" s="5">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.1600000000000001</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75">
       <c r="A75" s="4" t="s">
         <v>32</v>
       </c>
@@ -1266,15 +1522,15 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" ht="12.75">
       <c r="A76" s="4">
         <v>40633</v>
       </c>
       <c r="B76" s="5">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0099999999999998</v>
+      </c>
+    </row>
+    <row r="77" ht="12.75">
       <c r="A77" s="4" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1538,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" ht="12.75">
       <c r="A78" s="4">
         <v>40694</v>
       </c>
@@ -1290,15 +1546,15 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" ht="12.75">
       <c r="A79" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="5">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9199999999999999</v>
+      </c>
+    </row>
+    <row r="80" ht="12.75">
       <c r="A80" s="4">
         <v>40755</v>
       </c>
@@ -1306,15 +1562,15 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" ht="12.75">
       <c r="A81" s="4">
         <v>40786</v>
       </c>
       <c r="B81" s="5">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0099999999999998</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1578,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" ht="12.75">
       <c r="A83" s="4">
         <v>40847</v>
       </c>
@@ -1330,119 +1586,119 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" ht="12.75">
       <c r="A84" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="5">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.5800000000000001</v>
+      </c>
+    </row>
+    <row r="85" ht="12.75">
       <c r="A85" s="4">
         <v>40908</v>
       </c>
       <c r="B85" s="5">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002</v>
+      </c>
+    </row>
+    <row r="86" ht="12.75">
       <c r="A86" s="4">
         <v>40939</v>
       </c>
       <c r="B86" s="5">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.3300000000000001</v>
+      </c>
+    </row>
+    <row r="87" ht="12.75">
       <c r="A87" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="5">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.6600000000000001</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
       <c r="A88" s="4">
         <v>40999</v>
       </c>
       <c r="B88" s="5">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.5099999999999998</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75">
       <c r="A89" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="5">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.6900000000000004</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75">
       <c r="A90" s="4">
         <v>41060</v>
       </c>
       <c r="B90" s="5">
-        <v>6.63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.6299999999999999</v>
+      </c>
+    </row>
+    <row r="91" ht="12.75">
       <c r="A91" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="5">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.5700000000000003</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
       <c r="A92" s="4">
         <v>41121</v>
       </c>
       <c r="B92" s="5">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.4500000000000002</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75">
       <c r="A93" s="4">
         <v>41152</v>
       </c>
       <c r="B93" s="5">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.9299999999999997</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75">
       <c r="A94" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.9000000000000004</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75">
       <c r="A95" s="4">
         <v>41213</v>
       </c>
       <c r="B95" s="5">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8.3399999999999999</v>
+      </c>
+    </row>
+    <row r="96" ht="12.75">
       <c r="A96" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="5">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.2699999999999996</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75">
       <c r="A97" s="4">
         <v>41274</v>
       </c>
       <c r="B97" s="5">
-        <v>10.89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>10.890000000000001</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75">
       <c r="A98" s="4">
         <v>41305</v>
       </c>
@@ -1450,7 +1706,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" ht="12.75">
       <c r="A99" s="4" t="s">
         <v>42</v>
       </c>
@@ -1458,7 +1714,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" ht="12.75">
       <c r="A100" s="4">
         <v>41364</v>
       </c>
@@ -1466,7 +1722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" ht="12.75">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
@@ -1474,7 +1730,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" ht="12.75">
       <c r="A102" s="4">
         <v>41425</v>
       </c>
@@ -1482,7 +1738,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" ht="12.75">
       <c r="A103" s="4" t="s">
         <v>44</v>
       </c>
@@ -1490,7 +1746,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" ht="12.75">
       <c r="A104" s="4">
         <v>41486</v>
       </c>
@@ -1498,15 +1754,15 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" ht="12.75">
       <c r="A105" s="4">
         <v>41517</v>
       </c>
       <c r="B105" s="5">
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.449999999999999</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75">
       <c r="A106" s="4" t="s">
         <v>45</v>
       </c>
@@ -1514,7 +1770,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" ht="12.75">
       <c r="A107" s="4">
         <v>41578</v>
       </c>
@@ -1522,7 +1778,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" ht="12.75">
       <c r="A108" s="4" t="s">
         <v>46</v>
       </c>
@@ -1530,7 +1786,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" ht="12.75">
       <c r="A109" s="4">
         <v>41639</v>
       </c>
@@ -1538,7 +1794,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" ht="12.75">
       <c r="A110" s="4">
         <v>41670</v>
       </c>
@@ -1546,7 +1802,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" ht="12.75">
       <c r="A111" s="4" t="s">
         <v>47</v>
       </c>
@@ -1554,23 +1810,23 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" ht="12.75">
       <c r="A112" s="4">
         <v>41729</v>
       </c>
       <c r="B112" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75">
       <c r="A113" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="5">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.359999999999999</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75">
       <c r="A114" s="4">
         <v>41790</v>
       </c>
@@ -1578,15 +1834,15 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" ht="12.75">
       <c r="A115" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B115" s="5">
-        <v>16.47</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.469999999999999</v>
+      </c>
+    </row>
+    <row r="116" ht="12.75">
       <c r="A116" s="4">
         <v>41851</v>
       </c>
@@ -1594,7 +1850,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" ht="12.75">
       <c r="A117" s="4">
         <v>41882</v>
       </c>
@@ -1602,15 +1858,15 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" ht="12.75">
       <c r="A118" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
       <c r="A119" s="4">
         <v>41943</v>
       </c>
@@ -1618,55 +1874,55 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12.75">
       <c r="A120" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75">
       <c r="A121" s="4">
         <v>42004</v>
       </c>
       <c r="B121" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75">
       <c r="A122" s="4">
         <v>42035</v>
       </c>
       <c r="B122" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75">
       <c r="A123" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="5">
-        <v>16.53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.530000000000001</v>
+      </c>
+    </row>
+    <row r="124" ht="12.75">
       <c r="A124" s="4">
         <v>42094</v>
       </c>
       <c r="B124" s="5">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.199999999999999</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75">
       <c r="A125" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="5">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.199999999999999</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75">
       <c r="A126" s="4">
         <v>42155</v>
       </c>
@@ -1674,23 +1930,23 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" ht="12.75">
       <c r="A127" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="5">
-        <v>14.37</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.369999999999999</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75">
       <c r="A128" s="4">
         <v>42216</v>
       </c>
       <c r="B128" s="5">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>10.289999999999999</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75">
       <c r="A129" s="4">
         <v>42247</v>
       </c>
@@ -1698,7 +1954,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" ht="12.75">
       <c r="A130" s="4" t="s">
         <v>55</v>
       </c>
@@ -1706,7 +1962,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" ht="12.75">
       <c r="A131" s="4">
         <v>42308</v>
       </c>
@@ -1714,7 +1970,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" ht="12.75">
       <c r="A132" s="4" t="s">
         <v>56</v>
       </c>
@@ -1722,7 +1978,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" ht="12.75">
       <c r="A133" s="4">
         <v>42369</v>
       </c>
@@ -1730,15 +1986,15 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" ht="12.75">
       <c r="A134" s="4">
         <v>42400</v>
       </c>
       <c r="B134" s="5">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75">
       <c r="A135" s="4" t="s">
         <v>57</v>
       </c>
@@ -1746,15 +2002,15 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" ht="12.75">
       <c r="A136" s="4">
         <v>42460</v>
       </c>
       <c r="B136" s="5">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.869999999999999</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75">
       <c r="A137" s="4" t="s">
         <v>58</v>
       </c>
@@ -1762,7 +2018,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" ht="12.75">
       <c r="A138" s="4">
         <v>42521</v>
       </c>
@@ -1770,7 +2026,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="12.75">
       <c r="A139" s="4" t="s">
         <v>59</v>
       </c>
@@ -1778,7 +2034,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" ht="12.75">
       <c r="A140" s="4">
         <v>42582</v>
       </c>
@@ -1786,15 +2042,15 @@
         <v>15.57</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" ht="12.75">
       <c r="A141" s="4">
         <v>42613</v>
       </c>
       <c r="B141" s="5">
-        <v>16.89</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.890000000000001</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75">
       <c r="A142" s="4" t="s">
         <v>60</v>
       </c>
@@ -1802,15 +2058,15 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" ht="12.75">
       <c r="A143" s="4">
         <v>42674</v>
       </c>
       <c r="B143" s="5">
-        <v>16.53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.530000000000001</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75">
       <c r="A144" s="4" t="s">
         <v>61</v>
       </c>
@@ -1818,7 +2074,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" ht="12.75">
       <c r="A145" s="4">
         <v>42735</v>
       </c>
@@ -1826,15 +2082,15 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" ht="12.75">
       <c r="A146" s="4">
         <v>42766</v>
       </c>
       <c r="B146" s="5">
-        <v>18.87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18.870000000000001</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75">
       <c r="A147" s="4" t="s">
         <v>62</v>
       </c>
@@ -1842,7 +2098,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" ht="12.75">
       <c r="A148" s="4">
         <v>42825</v>
       </c>
@@ -1850,23 +2106,23 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" ht="12.75">
       <c r="A149" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="5">
-        <v>17.79</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17.789999999999999</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75">
       <c r="A150" s="4">
         <v>42886</v>
       </c>
       <c r="B150" s="5">
-        <v>17.28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17.280000000000001</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75">
       <c r="A151" s="4" t="s">
         <v>64</v>
       </c>
@@ -1874,23 +2130,23 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" ht="12.75">
       <c r="A152" s="4">
         <v>42947</v>
       </c>
       <c r="B152" s="5">
-        <v>19.05</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>19.050000000000001</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75">
       <c r="A153" s="4">
         <v>42978</v>
       </c>
       <c r="B153" s="5">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>17.370000000000001</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75">
       <c r="A154" s="4" t="s">
         <v>65</v>
       </c>
@@ -1898,31 +2154,31 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" ht="12.75">
       <c r="A155" s="4">
         <v>43039</v>
       </c>
       <c r="B155" s="5">
-        <v>16.47</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.469999999999999</v>
+      </c>
+    </row>
+    <row r="156" ht="12.75">
       <c r="A156" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="5">
-        <v>16.11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.109999999999999</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75">
       <c r="A157" s="4">
         <v>43100</v>
       </c>
       <c r="B157" s="5">
-        <v>16.62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.620000000000001</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75">
       <c r="A158" s="4">
         <v>43131</v>
       </c>
@@ -1930,15 +2186,15 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" ht="12.75">
       <c r="A159" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="5">
-        <v>16.89</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.890000000000001</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75">
       <c r="A160" s="4">
         <v>43190</v>
       </c>
@@ -1946,15 +2202,15 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" ht="12.75">
       <c r="A161" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="5">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>16.289999999999999</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75">
       <c r="A162" s="4">
         <v>43251</v>
       </c>
@@ -1962,15 +2218,15 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" ht="12.75">
       <c r="A163" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="5">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.779999999999999</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75">
       <c r="A164" s="4">
         <v>43312</v>
       </c>
@@ -1978,23 +2234,23 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" ht="12.75">
       <c r="A165" s="4">
         <v>43343</v>
       </c>
       <c r="B165" s="5">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.390000000000001</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75">
       <c r="A166" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="5">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.699999999999999</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75">
       <c r="A167" s="4">
         <v>43404</v>
       </c>
@@ -2002,7 +2258,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" ht="12.75">
       <c r="A168" s="4" t="s">
         <v>71</v>
       </c>
@@ -2010,7 +2266,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" ht="12.75">
       <c r="A169" s="4">
         <v>43465</v>
       </c>
@@ -2018,31 +2274,31 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" ht="12.75">
       <c r="A170" s="4">
         <v>43496</v>
       </c>
       <c r="B170" s="5">
-        <v>13.62</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.619999999999999</v>
+      </c>
+    </row>
+    <row r="171" ht="12.75">
       <c r="A171" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="5">
-        <v>13.71</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.710000000000001</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75">
       <c r="A172" s="4">
         <v>43555</v>
       </c>
       <c r="B172" s="5">
-        <v>11.88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>11.880000000000001</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75">
       <c r="A173" s="4" t="s">
         <v>73</v>
       </c>
@@ -2050,15 +2306,15 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" ht="12.75">
       <c r="A174" s="4">
         <v>43616</v>
       </c>
       <c r="B174" s="5">
-        <v>12.63</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.630000000000001</v>
+      </c>
+    </row>
+    <row r="175" ht="12.75">
       <c r="A175" s="4" t="s">
         <v>74</v>
       </c>
@@ -2066,15 +2322,15 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" ht="12.75">
       <c r="A176" s="4">
         <v>43677</v>
       </c>
       <c r="B176" s="5">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="177" ht="12.75">
       <c r="A177" s="4">
         <v>43708</v>
       </c>
@@ -2082,23 +2338,23 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" ht="12.75">
       <c r="A178" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B178" s="5">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.470000000000001</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75">
       <c r="A179" s="4">
         <v>43769</v>
       </c>
       <c r="B179" s="5">
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.359999999999999</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75">
       <c r="A180" s="4" t="s">
         <v>76</v>
       </c>
@@ -2106,7 +2362,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" ht="12.75">
       <c r="A181" s="4">
         <v>43830</v>
       </c>
@@ -2114,7 +2370,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" ht="12.75">
       <c r="A182" s="4">
         <v>43861</v>
       </c>
@@ -2122,7 +2378,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" ht="12.75">
       <c r="A183" s="4" t="s">
         <v>77</v>
       </c>
@@ -2130,15 +2386,15 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" ht="12.75">
       <c r="A184" s="4">
         <v>43921</v>
       </c>
       <c r="B184" s="5">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12.300000000000001</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -2146,23 +2402,23 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" ht="12.75">
       <c r="A186" s="4">
         <v>43982</v>
       </c>
       <c r="B186" s="5">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.880000000000001</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75">
       <c r="A187" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B187" s="5">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15.359999999999999</v>
+      </c>
+    </row>
+    <row r="188" ht="12.75">
       <c r="A188" s="4">
         <v>44043</v>
       </c>
@@ -2170,7 +2426,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12.75">
       <c r="A189" s="4">
         <v>44074</v>
       </c>
@@ -2178,23 +2434,23 @@
         <v>13.77</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" ht="12.75">
       <c r="A190" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="5">
-        <v>14.79</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.789999999999999</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75">
       <c r="A191" s="4">
         <v>44135</v>
       </c>
       <c r="B191" s="5">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.550000000000001</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75">
       <c r="A192" s="4" t="s">
         <v>81</v>
       </c>
@@ -2202,15 +2458,15 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" ht="12.75">
       <c r="A193" s="4">
         <v>44196</v>
       </c>
       <c r="B193" s="5">
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.550000000000001</v>
+      </c>
+    </row>
+    <row r="194" ht="12.75">
       <c r="A194" s="4">
         <v>44227</v>
       </c>
@@ -2218,15 +2474,15 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" ht="12.75">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="5">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.279999999999999</v>
+      </c>
+    </row>
+    <row r="196" ht="12.75">
       <c r="A196" s="4">
         <v>44286</v>
       </c>
@@ -2234,23 +2490,23 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" ht="12.75">
       <c r="A197" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B197" s="5">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>13.800000000000001</v>
+      </c>
+    </row>
+    <row r="198" ht="12.75">
       <c r="A198" s="4">
         <v>44347</v>
       </c>
       <c r="B198" s="5">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>14.279999999999999</v>
+      </c>
+    </row>
+    <row r="199" ht="12.75">
       <c r="A199" s="4" t="s">
         <v>84</v>
       </c>
@@ -2258,23 +2514,23 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="4">
         <v>44408</v>
       </c>
       <c r="B200" s="5">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15.359999999999999</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="5">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14.880000000000001</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="6" t="s">
         <v>86</v>
       </c>
@@ -2282,7 +2538,7 @@
         <v>16.489999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="6" t="s">
         <v>87</v>
       </c>
@@ -2290,7 +2546,7 @@
         <v>16.170000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="6" t="s">
         <v>88</v>
       </c>
@@ -2298,7 +2554,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4">
         <v>44561</v>
       </c>
@@ -2306,7 +2562,7 @@
         <v>16.350000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4">
         <v>44592</v>
       </c>
@@ -2314,15 +2570,15 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="5">
-        <v>17.13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17.129999999999999</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="4">
         <v>44651</v>
       </c>
@@ -2330,7 +2586,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>90</v>
       </c>
@@ -2338,7 +2594,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="4">
         <v>44712</v>
       </c>
@@ -2346,7 +2602,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="6" t="s">
         <v>91</v>
       </c>
@@ -2354,15 +2610,15 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="6">
         <v>44773</v>
       </c>
       <c r="B212" s="5">
-        <v>19.11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19.109999999999999</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="6">
         <v>44804</v>
       </c>
@@ -2370,7 +2626,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="6" t="s">
         <v>92</v>
       </c>
@@ -2378,7 +2634,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="6">
         <v>44865</v>
       </c>
@@ -2386,23 +2642,23 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B216" s="5">
-        <v>22.14</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.140000000000001</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="6">
         <v>44926</v>
       </c>
       <c r="B217" s="5">
-        <v>24.03</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.030000000000001</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="6">
         <v>44957</v>
       </c>
@@ -2410,15 +2666,15 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B219" s="5">
-        <v>24.87</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.870000000000001</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="6">
         <v>45016</v>
       </c>
@@ -2426,31 +2682,31 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B221" s="5">
-        <v>25.92</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25.920000000000002</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="6">
         <v>45077</v>
       </c>
       <c r="B222" s="5">
-        <v>24.36</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.359999999999999</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="5">
-        <v>24.54</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.539999999999999</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="6">
         <v>45138</v>
       </c>
@@ -2458,39 +2714,39 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="6">
         <v>45169</v>
       </c>
       <c r="B225" s="5">
-        <v>25.47</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25.469999999999999</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="5">
-        <v>25.17</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25.170000000000002</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="6">
         <v>45230</v>
       </c>
       <c r="B227" s="5">
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25.079999999999998</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="5">
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.960000000000001</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="6">
         <v>45291</v>
       </c>
@@ -2498,23 +2754,23 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="6">
         <v>45322</v>
       </c>
       <c r="B230" s="5">
-        <v>23.46</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.460000000000001</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="5">
-        <v>24.78</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.780000000000001</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="6">
         <v>45382</v>
       </c>
@@ -2522,47 +2778,47 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="5">
-        <v>24.69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24.690000000000001</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="6">
         <v>45443</v>
       </c>
       <c r="B234" s="5">
-        <v>23.61</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.609999999999999</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="5">
-        <v>23.19</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.190000000000001</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="6">
         <v>45504</v>
       </c>
       <c r="B236" s="5">
-        <v>21.81</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21.809999999999999</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="6">
         <v>45535</v>
       </c>
       <c r="B237" s="5">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.199999999999999</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="6" t="s">
         <v>102</v>
       </c>
@@ -2570,31 +2826,31 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="6">
         <v>45596</v>
       </c>
       <c r="B239" s="5">
-        <v>23.37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.370000000000001</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="5">
-        <v>22.74</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.739999999999998</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="6">
         <v>45657</v>
       </c>
       <c r="B241" s="5">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23.399999999999999</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="6">
         <v>45688</v>
       </c>
@@ -2602,15 +2858,15 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B243" s="5">
-        <v>22.29</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.289999999999999</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="6">
         <v>45747</v>
       </c>
@@ -2618,222 +2874,229 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B245" s="5">
-        <v>22.65</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.649999999999999</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="6">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>22.44</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.440000000000001</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B247" s="5">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22.620000000000001</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="6">
         <v>45869</v>
       </c>
-      <c r="B248" s="7">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="5">
+        <v>23.039999999999999</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="6">
         <v>45900</v>
       </c>
-      <c r="B249" s="7">
-        <v>23.31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="5">
+        <v>23.309999999999999</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B250" s="7">
-        <v>22.83</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="5">
+        <v>22.829999999999998</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="6">
         <v>45961</v>
       </c>
-      <c r="B251" s="7">
+      <c r="B251" s="5">
         <v>21.93</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B252" s="7">
+      <c r="B252" s="5">
         <v>20.91</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="6"/>
-    </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="6">
+        <v>46022</v>
+      </c>
+      <c r="B253">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="6"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="6"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="6"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="6"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="6"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="6"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="6"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="6"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="6"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="6"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="6"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="6"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="6"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="6"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="6"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="6"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="6"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="6"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="6"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="6"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="6"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="6"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="6"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="6"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="6"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="6"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="6"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="6"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="6"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="6"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="6"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="6"/>
     </row>
-    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="6"/>
     </row>
-    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="6"/>
     </row>
-    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="6"/>
     </row>
-    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="6"/>
     </row>
-    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="6"/>
     </row>
-    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="6"/>
     </row>
-    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="6"/>
     </row>
-    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="6"/>
     </row>
-    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="6"/>
     </row>
-    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="6"/>
     </row>
-    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="6"/>
     </row>
-    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="6"/>
     </row>
-    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="6"/>
     </row>
-    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="6"/>
     </row>
-    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="6"/>
     </row>
-    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="6"/>
     </row>
-    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>